--- a/outputs/exploratory_time_outs.xlsx
+++ b/outputs/exploratory_time_outs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisabethsilver/Documents/EEOC-AWD/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216600B9-687F-1C49-B324-14462758649E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736C76AA-97D8-3F4A-B938-64D7611C02BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="14240" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>Predictor</t>
   </si>
@@ -28,6 +28,30 @@
     <t>Pretty.Predictor</t>
   </si>
   <si>
+    <t>model1_b</t>
+  </si>
+  <si>
+    <t>model1_se_b</t>
+  </si>
+  <si>
+    <t>model2_b</t>
+  </si>
+  <si>
+    <t>model2_se_b</t>
+  </si>
+  <si>
+    <t>model3_b</t>
+  </si>
+  <si>
+    <t>model3_se_b</t>
+  </si>
+  <si>
+    <t>model2a_b</t>
+  </si>
+  <si>
+    <t>model2a_se_b</t>
+  </si>
+  <si>
     <t>(Intercept)</t>
   </si>
   <si>
@@ -46,18 +70,18 @@
     <t>0.69</t>
   </si>
   <si>
+    <t>2.53**</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
     <t>1.28</t>
   </si>
   <si>
     <t>0.70</t>
   </si>
   <si>
-    <t>2.53**</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
     <t>prop.white.comp_0509</t>
   </si>
   <si>
@@ -97,18 +121,18 @@
     <t>0.03</t>
   </si>
   <si>
+    <t>-0.20*</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
     <t>-0.05</t>
   </si>
   <si>
     <t>0.04</t>
   </si>
   <si>
-    <t>-0.20*</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>percent_poc_0509</t>
   </si>
   <si>
@@ -124,12 +148,12 @@
     <t>0.06***</t>
   </si>
   <si>
+    <t>0.03*</t>
+  </si>
+  <si>
     <t>0.05***</t>
   </si>
   <si>
-    <t>0.03*</t>
-  </si>
-  <si>
     <t>cons_0411</t>
   </si>
   <si>
@@ -148,15 +172,15 @@
     <t>0.76</t>
   </si>
   <si>
+    <t>-3.13</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
     <t>1.70**</t>
   </si>
   <si>
-    <t>-3.13</t>
-  </si>
-  <si>
-    <t>1.99</t>
-  </si>
-  <si>
     <t>percent_poc_0509:cons_0411</t>
   </si>
   <si>
@@ -184,12 +208,12 @@
     <t>% POC X White unemp.</t>
   </si>
   <si>
+    <t>0.01**</t>
+  </si>
+  <si>
     <t>0.00**</t>
   </si>
   <si>
-    <t>0.01**</t>
-  </si>
-  <si>
     <t>white_unemp_rate_0509:cons_0411</t>
   </si>
   <si>
@@ -211,90 +235,39 @@
     <t>R2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>0.114</t>
   </si>
   <si>
     <t>0.116</t>
   </si>
   <si>
+    <t>0.121</t>
+  </si>
+  <si>
     <t>0.117</t>
   </si>
   <si>
-    <t>0.121</t>
-  </si>
-  <si>
     <t>Change in R2</t>
   </si>
   <si>
     <t>8.01**</t>
   </si>
   <si>
+    <t>5.54***</t>
+  </si>
+  <si>
     <t>9.82**</t>
-  </si>
-  <si>
-    <t>4.94**</t>
-  </si>
-  <si>
-    <t>Model 1</t>
-  </si>
-  <si>
-    <t>Model 2</t>
-  </si>
-  <si>
-    <t>Model 2a</t>
-  </si>
-  <si>
-    <t>Model 3</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SE </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -322,50 +295,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -376,24 +312,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7D3211E-B2E1-5E48-B394-C7E713EA45E2}" name="Table1" displayName="Table1" ref="B1:J14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B1:J14" xr:uid="{A7D3211E-B2E1-5E48-B394-C7E713EA45E2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{2CC56E12-DEC9-054A-9135-1334BB61B4EA}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{A7994677-83D4-7A4A-B442-C09E56CB3CC9}" name="Model 1" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{BBE76766-B6CD-134D-8EEB-8F767AE373FF}" name="Column2" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{7638F1E1-CD17-A74E-A380-95455AF4370D}" name="Model 2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{3A6A5670-A28E-774B-9641-84D7F9D949F2}" name="Column3" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{CFB11195-2477-0F47-B06A-96BF3DE7035D}" name="Model 2a" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{0222C721-C6A4-2F4D-9B0E-158CDBF83EF9}" name="Column4" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{0B8A0744-6C4C-C544-9549-00A1EACC6113}" name="Model 3" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{99F26403-F6E4-854F-AF27-67B199D348A0}" name="Column5" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,467 +593,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
       <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>